--- a/Raw Data/Department_Allocations_20171.xlsx
+++ b/Raw Data/Department_Allocations_20171.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Data Requests, Marshall Internal\2017-2018\Peng Shi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchen\Desktop\USC MSBAN\Spring 2018\DSO 570\DSO 570 Final Project - Scheduling Optimization\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F399DC83-98C3-474C-AEC2-0A775EAADE62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="68">
   <si>
     <t>Room</t>
   </si>
@@ -86,19 +87,10 @@
     <t>MOR</t>
   </si>
   <si>
-    <t>BR202A</t>
-  </si>
-  <si>
-    <t>BRI-5</t>
-  </si>
-  <si>
     <t>OFFLINE</t>
   </si>
   <si>
     <t>BRI8</t>
-  </si>
-  <si>
-    <t>EDI</t>
   </si>
   <si>
     <t>BAEP</t>
@@ -110,46 +102,10 @@
     <t>HOH2</t>
   </si>
   <si>
-    <t>JFF 233</t>
-  </si>
-  <si>
-    <t>JFF 240</t>
-  </si>
-  <si>
-    <t>JFF 312</t>
-  </si>
-  <si>
     <t>CMC</t>
   </si>
   <si>
-    <t>JFF 313</t>
-  </si>
-  <si>
-    <t>JFF 316</t>
-  </si>
-  <si>
-    <t>JFF 327</t>
-  </si>
-  <si>
-    <t>JFF 331</t>
-  </si>
-  <si>
-    <t>JFF101</t>
-  </si>
-  <si>
     <t>TUTORING</t>
-  </si>
-  <si>
-    <t>JFF102</t>
-  </si>
-  <si>
-    <t>JFF103</t>
-  </si>
-  <si>
-    <t>JFF105</t>
-  </si>
-  <si>
-    <t>JFF125</t>
   </si>
   <si>
     <t>JFF236</t>
@@ -176,9 +132,6 @@
     <t>JFF417</t>
   </si>
   <si>
-    <t>JKP 102</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -194,49 +147,94 @@
     <t>W</t>
   </si>
   <si>
-    <t>JKP 104</t>
-  </si>
-  <si>
-    <t>JKP 110</t>
-  </si>
-  <si>
     <t>MBA.PM</t>
   </si>
   <si>
     <t xml:space="preserve">T </t>
   </si>
   <si>
-    <t>JKP 112</t>
-  </si>
-  <si>
-    <t>JKP 202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JKP 202 </t>
-  </si>
-  <si>
-    <t>JKP 204</t>
-  </si>
-  <si>
     <t>IBEAR</t>
-  </si>
-  <si>
-    <t>JKP 210</t>
   </si>
   <si>
     <t>PM CORE</t>
   </si>
   <si>
-    <t>JKP 212</t>
+    <t>MBA CORE</t>
   </si>
   <si>
-    <t>MBA CORE</t>
+    <t>BRI202A</t>
+  </si>
+  <si>
+    <t>BRI5</t>
+  </si>
+  <si>
+    <t>HOH EDI</t>
+  </si>
+  <si>
+    <t>JFF233</t>
+  </si>
+  <si>
+    <t>JFF240</t>
+  </si>
+  <si>
+    <t>JFF312</t>
+  </si>
+  <si>
+    <t>JFF313</t>
+  </si>
+  <si>
+    <t>JFF316</t>
+  </si>
+  <si>
+    <t>JFF327</t>
+  </si>
+  <si>
+    <t>JFF331</t>
+  </si>
+  <si>
+    <t>JFF LL101</t>
+  </si>
+  <si>
+    <t>JFF LL102</t>
+  </si>
+  <si>
+    <t>JFF LL103</t>
+  </si>
+  <si>
+    <t>JFF LL105</t>
+  </si>
+  <si>
+    <t>JFF LL125</t>
+  </si>
+  <si>
+    <t>JKP102</t>
+  </si>
+  <si>
+    <t>JKP104</t>
+  </si>
+  <si>
+    <t>JKP110</t>
+  </si>
+  <si>
+    <t>JKP112</t>
+  </si>
+  <si>
+    <t>JKP202</t>
+  </si>
+  <si>
+    <t>JKP204</t>
+  </si>
+  <si>
+    <t>JKP210</t>
+  </si>
+  <si>
+    <t>JKP212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,12 +578,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F703"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F703"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -623,7 +619,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
@@ -663,7 +659,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
@@ -703,7 +699,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E6" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -743,7 +739,7 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>11</v>
@@ -783,7 +779,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E10" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>10</v>
@@ -843,7 +839,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E13" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>8</v>
@@ -883,7 +879,7 @@
         <v>0.5</v>
       </c>
       <c r="E15" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>10</v>
@@ -923,7 +919,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E17" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
@@ -983,7 +979,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E20" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>8</v>
@@ -1023,7 +1019,7 @@
         <v>0.5</v>
       </c>
       <c r="E22" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>8</v>
@@ -1063,7 +1059,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E24" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>14</v>
@@ -1103,7 +1099,7 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>14</v>
@@ -1143,7 +1139,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E28" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>14</v>
@@ -1203,7 +1199,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E31" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>14</v>
@@ -1243,7 +1239,7 @@
         <v>0.5</v>
       </c>
       <c r="E33" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>14</v>
@@ -1283,7 +1279,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E35" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>14</v>
@@ -1343,7 +1339,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E38" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>8</v>
@@ -1383,7 +1379,7 @@
         <v>0.5</v>
       </c>
       <c r="E40" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>8</v>
@@ -1423,7 +1419,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E42" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>16</v>
@@ -1463,7 +1459,7 @@
         <v>0.5</v>
       </c>
       <c r="E44" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>16</v>
@@ -1503,7 +1499,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E46" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>16</v>
@@ -1563,7 +1559,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E49" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>16</v>
@@ -1603,7 +1599,7 @@
         <v>0.5</v>
       </c>
       <c r="E51" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>16</v>
@@ -1643,7 +1639,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E53" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>16</v>
@@ -1703,7 +1699,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E56" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>8</v>
@@ -1743,7 +1739,7 @@
         <v>0.5</v>
       </c>
       <c r="E58" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>8</v>
@@ -1783,7 +1779,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E60" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>16</v>
@@ -1823,7 +1819,7 @@
         <v>0.5</v>
       </c>
       <c r="E62" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>16</v>
@@ -1863,7 +1859,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E64" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>16</v>
@@ -1923,7 +1919,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E67" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>16</v>
@@ -1963,7 +1959,7 @@
         <v>0.5</v>
       </c>
       <c r="E69" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>16</v>
@@ -2003,7 +1999,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E71" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>16</v>
@@ -2063,7 +2059,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E74" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>8</v>
@@ -2103,7 +2099,7 @@
         <v>0.5</v>
       </c>
       <c r="E76" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>8</v>
@@ -2143,7 +2139,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E78" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>8</v>
@@ -2183,7 +2179,7 @@
         <v>0.5</v>
       </c>
       <c r="E80" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>8</v>
@@ -2223,7 +2219,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E82" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>8</v>
@@ -2283,7 +2279,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E85" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>8</v>
@@ -2323,7 +2319,7 @@
         <v>0.5</v>
       </c>
       <c r="E87" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>19</v>
@@ -2363,7 +2359,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E89" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>19</v>
@@ -2411,7 +2407,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B92" s="2">
         <v>34</v>
@@ -2423,7 +2419,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E92" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>8</v>
@@ -2431,7 +2427,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B93" s="2">
         <v>34</v>
@@ -2451,7 +2447,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B94" s="2">
         <v>34</v>
@@ -2463,7 +2459,7 @@
         <v>0.5</v>
       </c>
       <c r="E94" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>8</v>
@@ -2471,7 +2467,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B95" s="2">
         <v>34</v>
@@ -2491,7 +2487,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B96" s="5">
         <v>34</v>
@@ -2503,7 +2499,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E96" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>14</v>
@@ -2511,7 +2507,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B97" s="2">
         <v>34</v>
@@ -2531,7 +2527,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B98" s="2">
         <v>34</v>
@@ -2543,7 +2539,7 @@
         <v>0.5</v>
       </c>
       <c r="E98" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>14</v>
@@ -2551,7 +2547,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B99" s="2">
         <v>34</v>
@@ -2571,7 +2567,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B100" s="2">
         <v>34</v>
@@ -2583,7 +2579,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E100" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>14</v>
@@ -2591,7 +2587,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B101" s="2">
         <v>34</v>
@@ -2611,7 +2607,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B102" s="2">
         <v>34</v>
@@ -2631,7 +2627,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B103" s="2">
         <v>34</v>
@@ -2643,7 +2639,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E103" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>14</v>
@@ -2651,7 +2647,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B104" s="2">
         <v>34</v>
@@ -2671,7 +2667,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B105" s="2">
         <v>34</v>
@@ -2683,7 +2679,7 @@
         <v>0.5</v>
       </c>
       <c r="E105" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>14</v>
@@ -2691,7 +2687,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B106" s="2">
         <v>34</v>
@@ -2711,7 +2707,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B107" s="2">
         <v>34</v>
@@ -2723,7 +2719,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E107" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>14</v>
@@ -2731,7 +2727,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B108" s="2">
         <v>34</v>
@@ -2751,7 +2747,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B109" s="2">
         <v>34</v>
@@ -2771,7 +2767,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B110" s="2">
         <v>42</v>
@@ -2783,15 +2779,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E110" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B111" s="2">
         <v>42</v>
@@ -2806,12 +2802,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B112" s="2">
         <v>42</v>
@@ -2823,15 +2819,15 @@
         <v>0.5</v>
       </c>
       <c r="E112" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B113" s="2">
         <v>42</v>
@@ -2846,12 +2842,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B114" s="2">
         <v>42</v>
@@ -2863,15 +2859,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E114" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B115" s="2">
         <v>42</v>
@@ -2886,12 +2882,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B116" s="2">
         <v>42</v>
@@ -2903,15 +2899,15 @@
         <v>0.5</v>
       </c>
       <c r="E116" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B117" s="2">
         <v>42</v>
@@ -2926,12 +2922,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B118" s="2">
         <v>42</v>
@@ -2943,15 +2939,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E118" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B119" s="2">
         <v>42</v>
@@ -2966,12 +2962,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B120" s="2">
         <v>42</v>
@@ -2986,12 +2982,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B121" s="2">
         <v>42</v>
@@ -3003,15 +2999,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E121" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B122" s="2">
         <v>42</v>
@@ -3026,12 +3022,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B123" s="2">
         <v>42</v>
@@ -3043,15 +3039,15 @@
         <v>0.5</v>
       </c>
       <c r="E123" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B124" s="2">
         <v>42</v>
@@ -3066,12 +3062,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B125" s="2">
         <v>42</v>
@@ -3083,15 +3079,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E125" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B126" s="2">
         <v>42</v>
@@ -3106,12 +3102,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B127" s="2">
         <v>42</v>
@@ -3126,12 +3122,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B128" s="2">
         <v>36</v>
@@ -3143,15 +3139,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E128" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B129" s="2">
         <v>36</v>
@@ -3166,12 +3162,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B130" s="2">
         <v>36</v>
@@ -3183,15 +3179,15 @@
         <v>0.5</v>
       </c>
       <c r="E130" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B131" s="2">
         <v>36</v>
@@ -3206,12 +3202,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B132" s="2">
         <v>36</v>
@@ -3223,15 +3219,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E132" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B133" s="2">
         <v>36</v>
@@ -3246,12 +3242,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B134" s="2">
         <v>36</v>
@@ -3263,15 +3259,15 @@
         <v>0.5</v>
       </c>
       <c r="E134" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B135" s="2">
         <v>36</v>
@@ -3286,12 +3282,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B136" s="2">
         <v>36</v>
@@ -3303,15 +3299,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E136" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B137" s="2">
         <v>36</v>
@@ -3326,12 +3322,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B138" s="2">
         <v>36</v>
@@ -3346,12 +3342,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B139" s="2">
         <v>36</v>
@@ -3363,15 +3359,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E139" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B140" s="2">
         <v>36</v>
@@ -3386,12 +3382,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B141" s="2">
         <v>36</v>
@@ -3403,15 +3399,15 @@
         <v>0.5</v>
       </c>
       <c r="E141" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B142" s="2">
         <v>36</v>
@@ -3426,12 +3422,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B143" s="2">
         <v>36</v>
@@ -3443,15 +3439,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E143" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B144" s="2">
         <v>36</v>
@@ -3466,12 +3462,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B145" s="2">
         <v>36</v>
@@ -3486,12 +3482,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B146" s="2">
         <v>269</v>
@@ -3503,7 +3499,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E146" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>8</v>
@@ -3511,7 +3507,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B147" s="2">
         <v>269</v>
@@ -3531,7 +3527,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B148" s="2">
         <v>269</v>
@@ -3543,7 +3539,7 @@
         <v>0.5</v>
       </c>
       <c r="E148" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>8</v>
@@ -3551,7 +3547,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B149" s="2">
         <v>269</v>
@@ -3571,7 +3567,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B150" s="2">
         <v>269</v>
@@ -3583,7 +3579,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E150" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>11</v>
@@ -3591,7 +3587,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B151" s="2">
         <v>269</v>
@@ -3611,7 +3607,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B152" s="2">
         <v>269</v>
@@ -3623,7 +3619,7 @@
         <v>0.5</v>
       </c>
       <c r="E152" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -3631,7 +3627,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B153" s="2">
         <v>269</v>
@@ -3651,7 +3647,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B154" s="2">
         <v>269</v>
@@ -3663,7 +3659,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E154" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>8</v>
@@ -3671,7 +3667,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B155" s="2">
         <v>269</v>
@@ -3686,12 +3682,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B156" s="2">
         <v>269</v>
@@ -3711,7 +3707,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B157" s="2">
         <v>269</v>
@@ -3723,7 +3719,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E157" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>11</v>
@@ -3731,7 +3727,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B158" s="2">
         <v>269</v>
@@ -3751,7 +3747,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B159" s="2">
         <v>269</v>
@@ -3763,7 +3759,7 @@
         <v>0.5</v>
       </c>
       <c r="E159" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>8</v>
@@ -3771,7 +3767,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B160" s="2">
         <v>269</v>
@@ -3791,7 +3787,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B161" s="2">
         <v>269</v>
@@ -3803,7 +3799,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E161" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>11</v>
@@ -3811,7 +3807,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B162" s="2">
         <v>269</v>
@@ -3831,7 +3827,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B163" s="2">
         <v>269</v>
@@ -3851,7 +3847,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B164" s="2">
         <v>73</v>
@@ -3863,7 +3859,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E164" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>8</v>
@@ -3871,7 +3867,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B165" s="2">
         <v>73</v>
@@ -3891,7 +3887,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B166" s="2">
         <v>73</v>
@@ -3903,7 +3899,7 @@
         <v>0.5</v>
       </c>
       <c r="E166" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>8</v>
@@ -3911,7 +3907,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B167" s="2">
         <v>73</v>
@@ -3931,7 +3927,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B168" s="2">
         <v>73</v>
@@ -3943,7 +3939,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E168" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>11</v>
@@ -3951,7 +3947,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B169" s="2">
         <v>73</v>
@@ -3971,7 +3967,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B170" s="2">
         <v>73</v>
@@ -3983,7 +3979,7 @@
         <v>0.5</v>
       </c>
       <c r="E170" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>11</v>
@@ -3991,7 +3987,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B171" s="2">
         <v>73</v>
@@ -4011,7 +4007,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B172" s="2">
         <v>73</v>
@@ -4023,7 +4019,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E172" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>11</v>
@@ -4031,7 +4027,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B173" s="2">
         <v>73</v>
@@ -4051,7 +4047,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B174" s="2">
         <v>73</v>
@@ -4071,7 +4067,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B175" s="2">
         <v>73</v>
@@ -4083,7 +4079,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E175" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>11</v>
@@ -4091,7 +4087,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B176" s="2">
         <v>73</v>
@@ -4111,7 +4107,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B177" s="2">
         <v>73</v>
@@ -4123,7 +4119,7 @@
         <v>0.5</v>
       </c>
       <c r="E177" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>11</v>
@@ -4131,7 +4127,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B178" s="2">
         <v>73</v>
@@ -4151,7 +4147,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B179" s="2">
         <v>73</v>
@@ -4163,7 +4159,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E179" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>11</v>
@@ -4171,7 +4167,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B180" s="2">
         <v>73</v>
@@ -4191,7 +4187,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B181" s="2">
         <v>73</v>
@@ -4211,7 +4207,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B182" s="2">
         <v>73</v>
@@ -4223,7 +4219,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E182" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>8</v>
@@ -4231,7 +4227,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B183" s="2">
         <v>73</v>
@@ -4251,7 +4247,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B184" s="2">
         <v>73</v>
@@ -4263,7 +4259,7 @@
         <v>0.5</v>
       </c>
       <c r="E184" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>8</v>
@@ -4271,7 +4267,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B185" s="2">
         <v>73</v>
@@ -4291,7 +4287,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B186" s="2">
         <v>73</v>
@@ -4303,7 +4299,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E186" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>14</v>
@@ -4311,7 +4307,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B187" s="2">
         <v>73</v>
@@ -4331,7 +4327,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B188" s="2">
         <v>73</v>
@@ -4343,7 +4339,7 @@
         <v>0.5</v>
       </c>
       <c r="E188" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>14</v>
@@ -4351,7 +4347,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B189" s="2">
         <v>73</v>
@@ -4371,7 +4367,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B190" s="2">
         <v>73</v>
@@ -4383,7 +4379,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E190" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>14</v>
@@ -4391,7 +4387,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B191" s="2">
         <v>73</v>
@@ -4411,7 +4407,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B192" s="2">
         <v>73</v>
@@ -4431,7 +4427,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B193" s="2">
         <v>73</v>
@@ -4443,7 +4439,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E193" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>14</v>
@@ -4451,7 +4447,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B194" s="2">
         <v>73</v>
@@ -4471,7 +4467,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B195" s="2">
         <v>73</v>
@@ -4483,7 +4479,7 @@
         <v>0.5</v>
       </c>
       <c r="E195" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>14</v>
@@ -4491,7 +4487,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B196" s="2">
         <v>73</v>
@@ -4511,7 +4507,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B197" s="2">
         <v>73</v>
@@ -4523,7 +4519,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E197" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>14</v>
@@ -4531,7 +4527,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B198" s="2">
         <v>73</v>
@@ -4551,7 +4547,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B199" s="2">
         <v>73</v>
@@ -4571,7 +4567,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B200" s="2">
         <v>60</v>
@@ -4583,7 +4579,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E200" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>8</v>
@@ -4591,7 +4587,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B201" s="2">
         <v>60</v>
@@ -4611,7 +4607,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B202" s="2">
         <v>60</v>
@@ -4623,7 +4619,7 @@
         <v>0.5</v>
       </c>
       <c r="E202" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>8</v>
@@ -4631,7 +4627,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B203" s="2">
         <v>60</v>
@@ -4651,7 +4647,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B204" s="2">
         <v>60</v>
@@ -4663,7 +4659,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E204" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>16</v>
@@ -4671,7 +4667,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B205" s="2">
         <v>60</v>
@@ -4691,7 +4687,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B206" s="2">
         <v>60</v>
@@ -4703,7 +4699,7 @@
         <v>0.5</v>
       </c>
       <c r="E206" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>16</v>
@@ -4711,7 +4707,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B207" s="2">
         <v>60</v>
@@ -4731,7 +4727,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B208" s="2">
         <v>60</v>
@@ -4743,7 +4739,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E208" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>16</v>
@@ -4751,7 +4747,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B209" s="2">
         <v>60</v>
@@ -4771,7 +4767,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B210" s="2">
         <v>60</v>
@@ -4791,7 +4787,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B211" s="2">
         <v>60</v>
@@ -4803,7 +4799,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E211" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>16</v>
@@ -4811,7 +4807,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B212" s="2">
         <v>60</v>
@@ -4831,7 +4827,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B213" s="2">
         <v>60</v>
@@ -4843,7 +4839,7 @@
         <v>0.5</v>
       </c>
       <c r="E213" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>16</v>
@@ -4851,7 +4847,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B214" s="2">
         <v>60</v>
@@ -4871,7 +4867,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B215" s="2">
         <v>60</v>
@@ -4883,7 +4879,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E215" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>16</v>
@@ -4891,7 +4887,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B216" s="2">
         <v>60</v>
@@ -4911,7 +4907,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B217" s="2">
         <v>60</v>
@@ -4931,7 +4927,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B218" s="2">
         <v>48</v>
@@ -4943,7 +4939,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E218" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>8</v>
@@ -4951,7 +4947,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B219" s="2">
         <v>48</v>
@@ -4971,7 +4967,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B220" s="2">
         <v>48</v>
@@ -4983,7 +4979,7 @@
         <v>0.5</v>
       </c>
       <c r="E220" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>8</v>
@@ -4991,7 +4987,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B221" s="2">
         <v>48</v>
@@ -5011,7 +5007,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B222" s="2">
         <v>48</v>
@@ -5023,7 +5019,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E222" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>19</v>
@@ -5031,7 +5027,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B223" s="2">
         <v>48</v>
@@ -5051,7 +5047,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B224" s="2">
         <v>48</v>
@@ -5063,7 +5059,7 @@
         <v>0.5</v>
       </c>
       <c r="E224" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>14</v>
@@ -5071,7 +5067,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B225" s="2">
         <v>48</v>
@@ -5091,7 +5087,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B226" s="2">
         <v>48</v>
@@ -5103,7 +5099,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E226" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>19</v>
@@ -5111,7 +5107,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B227" s="2">
         <v>48</v>
@@ -5131,7 +5127,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B228" s="2">
         <v>48</v>
@@ -5151,7 +5147,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B229" s="2">
         <v>48</v>
@@ -5163,7 +5159,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E229" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>8</v>
@@ -5171,7 +5167,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B230" s="2">
         <v>48</v>
@@ -5191,7 +5187,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B231" s="2">
         <v>48</v>
@@ -5203,7 +5199,7 @@
         <v>0.5</v>
       </c>
       <c r="E231" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>19</v>
@@ -5211,7 +5207,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B232" s="2">
         <v>48</v>
@@ -5231,7 +5227,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B233" s="2">
         <v>48</v>
@@ -5243,7 +5239,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E233" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>14</v>
@@ -5251,7 +5247,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B234" s="2">
         <v>48</v>
@@ -5271,7 +5267,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B235" s="2">
         <v>48</v>
@@ -5291,7 +5287,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B236" s="2">
         <v>20</v>
@@ -5303,15 +5299,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E236" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B237" s="2">
         <v>20</v>
@@ -5326,12 +5322,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B238" s="2">
         <v>20</v>
@@ -5343,15 +5339,15 @@
         <v>0.5</v>
       </c>
       <c r="E238" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B239" s="2">
         <v>20</v>
@@ -5366,12 +5362,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B240" s="2">
         <v>20</v>
@@ -5383,15 +5379,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E240" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B241" s="2">
         <v>20</v>
@@ -5406,12 +5402,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B242" s="2">
         <v>20</v>
@@ -5423,15 +5419,15 @@
         <v>0.5</v>
       </c>
       <c r="E242" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B243" s="2">
         <v>20</v>
@@ -5446,12 +5442,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B244" s="2">
         <v>20</v>
@@ -5463,15 +5459,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E244" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B245" s="2">
         <v>20</v>
@@ -5486,12 +5482,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B246" s="2">
         <v>20</v>
@@ -5506,12 +5502,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B247" s="2">
         <v>20</v>
@@ -5523,15 +5519,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E247" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B248" s="2">
         <v>20</v>
@@ -5546,12 +5542,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B249" s="2">
         <v>20</v>
@@ -5563,15 +5559,15 @@
         <v>0.5</v>
       </c>
       <c r="E249" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B250" s="2">
         <v>20</v>
@@ -5586,12 +5582,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B251" s="2">
         <v>20</v>
@@ -5603,15 +5599,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E251" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B252" s="2">
         <v>20</v>
@@ -5626,12 +5622,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B253" s="2">
         <v>20</v>
@@ -5646,12 +5642,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B254" s="2">
         <v>20</v>
@@ -5663,15 +5659,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E254" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B255" s="2">
         <v>20</v>
@@ -5686,12 +5682,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B256" s="2">
         <v>20</v>
@@ -5703,15 +5699,15 @@
         <v>0.5</v>
       </c>
       <c r="E256" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B257" s="2">
         <v>20</v>
@@ -5726,12 +5722,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B258" s="2">
         <v>20</v>
@@ -5743,15 +5739,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E258" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B259" s="2">
         <v>20</v>
@@ -5766,12 +5762,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B260" s="2">
         <v>20</v>
@@ -5783,15 +5779,15 @@
         <v>0.5</v>
       </c>
       <c r="E260" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B261" s="2">
         <v>20</v>
@@ -5806,12 +5802,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B262" s="2">
         <v>20</v>
@@ -5823,15 +5819,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E262" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B263" s="2">
         <v>20</v>
@@ -5846,12 +5842,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B264" s="2">
         <v>20</v>
@@ -5866,12 +5862,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B265" s="2">
         <v>20</v>
@@ -5883,15 +5879,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E265" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B266" s="2">
         <v>20</v>
@@ -5906,12 +5902,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B267" s="2">
         <v>20</v>
@@ -5923,15 +5919,15 @@
         <v>0.5</v>
       </c>
       <c r="E267" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B268" s="2">
         <v>20</v>
@@ -5946,12 +5942,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B269" s="2">
         <v>20</v>
@@ -5963,15 +5959,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E269" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B270" s="2">
         <v>20</v>
@@ -5986,12 +5982,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B271" s="2">
         <v>20</v>
@@ -6006,12 +6002,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B272" s="2">
         <v>48</v>
@@ -6023,7 +6019,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E272" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
@@ -6031,7 +6027,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B273" s="2">
         <v>48</v>
@@ -6051,7 +6047,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B274" s="2">
         <v>48</v>
@@ -6063,7 +6059,7 @@
         <v>0.5</v>
       </c>
       <c r="E274" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
@@ -6071,7 +6067,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B275" s="2">
         <v>48</v>
@@ -6091,7 +6087,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B276" s="2">
         <v>48</v>
@@ -6103,15 +6099,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E276" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B277" s="2">
         <v>48</v>
@@ -6131,7 +6127,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B278" s="2">
         <v>48</v>
@@ -6143,7 +6139,7 @@
         <v>0.5</v>
       </c>
       <c r="E278" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
@@ -6151,7 +6147,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B279" s="2">
         <v>48</v>
@@ -6171,7 +6167,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B280" s="2">
         <v>48</v>
@@ -6183,7 +6179,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E280" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
@@ -6191,7 +6187,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B281" s="2">
         <v>48</v>
@@ -6211,7 +6207,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B282" s="2">
         <v>48</v>
@@ -6231,7 +6227,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B283" s="2">
         <v>48</v>
@@ -6243,7 +6239,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E283" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
@@ -6251,7 +6247,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B284" s="2">
         <v>48</v>
@@ -6271,7 +6267,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B285" s="2">
         <v>48</v>
@@ -6283,7 +6279,7 @@
         <v>0.5</v>
       </c>
       <c r="E285" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
@@ -6291,7 +6287,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B286" s="2">
         <v>48</v>
@@ -6311,7 +6307,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B287" s="2">
         <v>48</v>
@@ -6323,7 +6319,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E287" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
@@ -6331,7 +6327,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B288" s="2">
         <v>48</v>
@@ -6351,7 +6347,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B289" s="2">
         <v>48</v>
@@ -6371,7 +6367,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B290" s="2">
         <v>36</v>
@@ -6383,7 +6379,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E290" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>8</v>
@@ -6391,7 +6387,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B291" s="2">
         <v>36</v>
@@ -6411,7 +6407,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B292" s="2">
         <v>36</v>
@@ -6423,7 +6419,7 @@
         <v>0.5</v>
       </c>
       <c r="E292" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>8</v>
@@ -6431,7 +6427,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B293" s="2">
         <v>36</v>
@@ -6451,7 +6447,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B294" s="2">
         <v>36</v>
@@ -6463,15 +6459,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E294" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B295" s="2">
         <v>36</v>
@@ -6486,12 +6482,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B296" s="2">
         <v>36</v>
@@ -6503,15 +6499,15 @@
         <v>0.5</v>
       </c>
       <c r="E296" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B297" s="2">
         <v>36</v>
@@ -6526,12 +6522,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B298" s="2">
         <v>36</v>
@@ -6543,15 +6539,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E298" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B299" s="2">
         <v>36</v>
@@ -6566,12 +6562,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B300" s="2">
         <v>36</v>
@@ -6591,7 +6587,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B301" s="2">
         <v>36</v>
@@ -6603,15 +6599,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E301" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B302" s="2">
         <v>36</v>
@@ -6626,12 +6622,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B303" s="2">
         <v>36</v>
@@ -6643,15 +6639,15 @@
         <v>0.5</v>
       </c>
       <c r="E303" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B304" s="2">
         <v>36</v>
@@ -6666,12 +6662,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B305" s="2">
         <v>36</v>
@@ -6683,15 +6679,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E305" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B306" s="2">
         <v>36</v>
@@ -6706,12 +6702,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B307" s="2">
         <v>36</v>
@@ -6731,7 +6727,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B308" s="2">
         <v>36</v>
@@ -6743,7 +6739,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E308" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>8</v>
@@ -6751,7 +6747,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B309" s="2">
         <v>36</v>
@@ -6771,7 +6767,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B310" s="2">
         <v>36</v>
@@ -6783,7 +6779,7 @@
         <v>0.5</v>
       </c>
       <c r="E310" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>8</v>
@@ -6791,7 +6787,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B311" s="2">
         <v>36</v>
@@ -6811,7 +6807,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B312" s="2">
         <v>36</v>
@@ -6823,15 +6819,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E312" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B313" s="2">
         <v>36</v>
@@ -6846,12 +6842,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B314" s="2">
         <v>36</v>
@@ -6863,15 +6859,15 @@
         <v>0.5</v>
       </c>
       <c r="E314" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B315" s="2">
         <v>36</v>
@@ -6886,12 +6882,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B316" s="2">
         <v>36</v>
@@ -6903,15 +6899,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E316" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B317" s="2">
         <v>36</v>
@@ -6926,12 +6922,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B318" s="2">
         <v>36</v>
@@ -6951,7 +6947,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B319" s="2">
         <v>36</v>
@@ -6963,15 +6959,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E319" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B320" s="2">
         <v>36</v>
@@ -6986,12 +6982,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B321" s="2">
         <v>36</v>
@@ -7003,15 +6999,15 @@
         <v>0.5</v>
       </c>
       <c r="E321" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F321" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B322" s="2">
         <v>36</v>
@@ -7026,12 +7022,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B323" s="2">
         <v>36</v>
@@ -7043,15 +7039,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E323" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B324" s="2">
         <v>36</v>
@@ -7066,12 +7062,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B325" s="2">
         <v>36</v>
@@ -7091,7 +7087,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B326" s="2">
         <v>48</v>
@@ -7103,7 +7099,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E326" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>8</v>
@@ -7111,7 +7107,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B327" s="2">
         <v>48</v>
@@ -7131,7 +7127,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B328" s="2">
         <v>48</v>
@@ -7143,7 +7139,7 @@
         <v>0.5</v>
       </c>
       <c r="E328" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>8</v>
@@ -7151,7 +7147,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B329" s="2">
         <v>48</v>
@@ -7171,7 +7167,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B330" s="2">
         <v>48</v>
@@ -7183,7 +7179,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E330" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F330" s="6" t="s">
         <v>16</v>
@@ -7191,7 +7187,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B331" s="2">
         <v>48</v>
@@ -7211,7 +7207,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B332" s="2">
         <v>48</v>
@@ -7223,7 +7219,7 @@
         <v>0.5</v>
       </c>
       <c r="E332" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F332" s="6" t="s">
         <v>16</v>
@@ -7231,7 +7227,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B333" s="2">
         <v>48</v>
@@ -7251,7 +7247,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B334" s="2">
         <v>48</v>
@@ -7263,7 +7259,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E334" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F334" s="6" t="s">
         <v>16</v>
@@ -7271,7 +7267,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B335" s="2">
         <v>48</v>
@@ -7286,12 +7282,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B336" s="2">
         <v>48</v>
@@ -7306,12 +7302,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B337" s="2">
         <v>48</v>
@@ -7323,7 +7319,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E337" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F337" s="6" t="s">
         <v>16</v>
@@ -7331,7 +7327,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B338" s="2">
         <v>48</v>
@@ -7351,7 +7347,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B339" s="2">
         <v>48</v>
@@ -7363,7 +7359,7 @@
         <v>0.5</v>
       </c>
       <c r="E339" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F339" s="6" t="s">
         <v>16</v>
@@ -7371,7 +7367,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B340" s="2">
         <v>48</v>
@@ -7391,7 +7387,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B341" s="2">
         <v>48</v>
@@ -7403,7 +7399,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E341" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F341" s="6" t="s">
         <v>16</v>
@@ -7411,7 +7407,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B342" s="2">
         <v>48</v>
@@ -7426,12 +7422,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B343" s="2">
         <v>48</v>
@@ -7446,12 +7442,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B344" s="2">
         <v>48</v>
@@ -7463,7 +7459,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E344" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>8</v>
@@ -7471,7 +7467,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B345" s="2">
         <v>48</v>
@@ -7491,7 +7487,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B346" s="2">
         <v>48</v>
@@ -7503,7 +7499,7 @@
         <v>0.5</v>
       </c>
       <c r="E346" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>8</v>
@@ -7511,7 +7507,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B347" s="2">
         <v>48</v>
@@ -7531,7 +7527,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B348" s="2">
         <v>48</v>
@@ -7543,7 +7539,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E348" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F348" s="6" t="s">
         <v>16</v>
@@ -7551,7 +7547,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B349" s="2">
         <v>48</v>
@@ -7571,7 +7567,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B350" s="2">
         <v>48</v>
@@ -7583,7 +7579,7 @@
         <v>0.5</v>
       </c>
       <c r="E350" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F350" s="6" t="s">
         <v>16</v>
@@ -7591,7 +7587,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B351" s="2">
         <v>48</v>
@@ -7611,7 +7607,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B352" s="2">
         <v>48</v>
@@ -7623,7 +7619,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E352" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F352" s="6" t="s">
         <v>16</v>
@@ -7631,7 +7627,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B353" s="2">
         <v>48</v>
@@ -7646,12 +7642,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B354" s="2">
         <v>48</v>
@@ -7666,12 +7662,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B355" s="2">
         <v>48</v>
@@ -7683,7 +7679,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E355" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F355" s="6" t="s">
         <v>16</v>
@@ -7691,7 +7687,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B356" s="2">
         <v>48</v>
@@ -7711,7 +7707,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B357" s="2">
         <v>48</v>
@@ -7723,7 +7719,7 @@
         <v>0.5</v>
       </c>
       <c r="E357" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F357" s="6" t="s">
         <v>16</v>
@@ -7731,7 +7727,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B358" s="2">
         <v>48</v>
@@ -7751,7 +7747,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B359" s="2">
         <v>48</v>
@@ -7763,7 +7759,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E359" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F359" s="6" t="s">
         <v>16</v>
@@ -7771,7 +7767,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B360" s="2">
         <v>48</v>
@@ -7786,12 +7782,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B361" s="2">
         <v>48</v>
@@ -7806,12 +7802,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B362" s="2">
         <v>48</v>
@@ -7823,7 +7819,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E362" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>8</v>
@@ -7831,7 +7827,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B363" s="2">
         <v>48</v>
@@ -7851,7 +7847,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B364" s="2">
         <v>48</v>
@@ -7863,7 +7859,7 @@
         <v>0.5</v>
       </c>
       <c r="E364" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>8</v>
@@ -7871,7 +7867,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B365" s="2">
         <v>48</v>
@@ -7891,7 +7887,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B366" s="5">
         <v>48</v>
@@ -7903,7 +7899,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E366" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>8</v>
@@ -7911,7 +7907,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B367" s="2">
         <v>48</v>
@@ -7931,7 +7927,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B368" s="2">
         <v>48</v>
@@ -7943,7 +7939,7 @@
         <v>0.5</v>
       </c>
       <c r="E368" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>8</v>
@@ -7951,7 +7947,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B369" s="2">
         <v>48</v>
@@ -7971,7 +7967,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B370" s="2">
         <v>48</v>
@@ -7983,7 +7979,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E370" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>8</v>
@@ -7991,7 +7987,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B371" s="2">
         <v>48</v>
@@ -8011,7 +8007,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B372" s="2">
         <v>48</v>
@@ -8031,7 +8027,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B373" s="2">
         <v>48</v>
@@ -8043,7 +8039,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E373" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>8</v>
@@ -8051,7 +8047,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B374" s="2">
         <v>48</v>
@@ -8071,7 +8067,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B375" s="2">
         <v>48</v>
@@ -8083,7 +8079,7 @@
         <v>0.5</v>
       </c>
       <c r="E375" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>8</v>
@@ -8091,7 +8087,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B376" s="2">
         <v>48</v>
@@ -8111,7 +8107,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B377" s="2">
         <v>48</v>
@@ -8123,7 +8119,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E377" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>8</v>
@@ -8131,7 +8127,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B378" s="2">
         <v>48</v>
@@ -8151,7 +8147,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B379" s="2">
         <v>48</v>
@@ -8171,7 +8167,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B380" s="2">
         <v>150</v>
@@ -8183,7 +8179,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E380" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>8</v>
@@ -8191,7 +8187,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B381" s="2">
         <v>150</v>
@@ -8211,7 +8207,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B382" s="2">
         <v>150</v>
@@ -8223,7 +8219,7 @@
         <v>0.5</v>
       </c>
       <c r="E382" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>8</v>
@@ -8231,7 +8227,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B383" s="2">
         <v>150</v>
@@ -8251,7 +8247,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B384" s="1">
         <v>150</v>
@@ -8263,7 +8259,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E384" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F384" s="6" t="s">
         <v>14</v>
@@ -8271,7 +8267,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B385" s="2">
         <v>150</v>
@@ -8291,7 +8287,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B386" s="2">
         <v>150</v>
@@ -8303,7 +8299,7 @@
         <v>0.5</v>
       </c>
       <c r="E386" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>8</v>
@@ -8311,7 +8307,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B387" s="2">
         <v>150</v>
@@ -8331,7 +8327,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B388" s="2">
         <v>150</v>
@@ -8343,7 +8339,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E388" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>14</v>
@@ -8351,7 +8347,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B389" s="2">
         <v>150</v>
@@ -8371,7 +8367,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B390" s="2">
         <v>150</v>
@@ -8391,7 +8387,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B391" s="2">
         <v>150</v>
@@ -8403,7 +8399,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E391" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>14</v>
@@ -8411,7 +8407,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B392" s="2">
         <v>150</v>
@@ -8431,7 +8427,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B393" s="2">
         <v>150</v>
@@ -8443,7 +8439,7 @@
         <v>0.5</v>
       </c>
       <c r="E393" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>11</v>
@@ -8451,7 +8447,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B394" s="2">
         <v>150</v>
@@ -8471,7 +8467,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B395" s="2">
         <v>150</v>
@@ -8483,7 +8479,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E395" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>14</v>
@@ -8491,7 +8487,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B396" s="2">
         <v>150</v>
@@ -8511,7 +8507,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B397" s="2">
         <v>150</v>
@@ -8531,7 +8527,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B398" s="2">
         <v>101</v>
@@ -8543,7 +8539,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E398" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>19</v>
@@ -8551,7 +8547,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B399" s="2">
         <v>101</v>
@@ -8571,7 +8567,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B400" s="2">
         <v>101</v>
@@ -8583,7 +8579,7 @@
         <v>0.5</v>
       </c>
       <c r="E400" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>8</v>
@@ -8591,7 +8587,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B401" s="2">
         <v>101</v>
@@ -8611,7 +8607,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B402" s="1">
         <v>101</v>
@@ -8623,7 +8619,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E402" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F402" s="6" t="s">
         <v>11</v>
@@ -8631,7 +8627,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B403" s="2">
         <v>101</v>
@@ -8651,7 +8647,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B404" s="2">
         <v>101</v>
@@ -8663,7 +8659,7 @@
         <v>0.5</v>
       </c>
       <c r="E404" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F404" s="6" t="s">
         <v>11</v>
@@ -8671,7 +8667,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B405" s="2">
         <v>101</v>
@@ -8691,7 +8687,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B406" s="2">
         <v>101</v>
@@ -8703,7 +8699,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E406" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F406" s="6" t="s">
         <v>11</v>
@@ -8711,7 +8707,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B407" s="2">
         <v>101</v>
@@ -8731,7 +8727,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B408" s="2">
         <v>101</v>
@@ -8751,7 +8747,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B409" s="2">
         <v>101</v>
@@ -8763,7 +8759,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E409" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F409" s="6" t="s">
         <v>11</v>
@@ -8771,7 +8767,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B410" s="2">
         <v>101</v>
@@ -8791,7 +8787,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B411" s="2">
         <v>101</v>
@@ -8803,7 +8799,7 @@
         <v>0.5</v>
       </c>
       <c r="E411" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F411" s="6" t="s">
         <v>11</v>
@@ -8811,7 +8807,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B412" s="2">
         <v>101</v>
@@ -8831,7 +8827,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B413" s="2">
         <v>101</v>
@@ -8843,7 +8839,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E413" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F413" s="6" t="s">
         <v>11</v>
@@ -8851,7 +8847,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B414" s="2">
         <v>101</v>
@@ -8871,7 +8867,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B415" s="2">
         <v>101</v>
@@ -8891,7 +8887,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B416" s="2">
         <v>60</v>
@@ -8903,7 +8899,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E416" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>8</v>
@@ -8911,7 +8907,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B417" s="2">
         <v>60</v>
@@ -8931,7 +8927,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B418" s="2">
         <v>60</v>
@@ -8943,7 +8939,7 @@
         <v>0.5</v>
       </c>
       <c r="E418" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>8</v>
@@ -8951,7 +8947,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B419" s="2">
         <v>60</v>
@@ -8971,7 +8967,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B420" s="2">
         <v>60</v>
@@ -8983,7 +8979,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E420" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F420" s="6" t="s">
         <v>16</v>
@@ -8991,7 +8987,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B421" s="2">
         <v>60</v>
@@ -9011,7 +9007,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B422" s="2">
         <v>60</v>
@@ -9023,7 +9019,7 @@
         <v>0.5</v>
       </c>
       <c r="E422" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>16</v>
@@ -9031,7 +9027,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B423" s="2">
         <v>60</v>
@@ -9051,7 +9047,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B424" s="2">
         <v>60</v>
@@ -9063,7 +9059,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E424" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>16</v>
@@ -9071,7 +9067,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B425" s="2">
         <v>60</v>
@@ -9091,7 +9087,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B426" s="2">
         <v>60</v>
@@ -9111,7 +9107,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B427" s="2">
         <v>60</v>
@@ -9123,7 +9119,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E427" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>16</v>
@@ -9131,7 +9127,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B428" s="2">
         <v>60</v>
@@ -9151,7 +9147,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B429" s="2">
         <v>60</v>
@@ -9163,7 +9159,7 @@
         <v>0.5</v>
       </c>
       <c r="E429" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>16</v>
@@ -9171,7 +9167,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B430" s="2">
         <v>60</v>
@@ -9191,7 +9187,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B431" s="2">
         <v>60</v>
@@ -9203,7 +9199,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E431" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>8</v>
@@ -9211,7 +9207,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B432" s="2">
         <v>60</v>
@@ -9231,7 +9227,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B433" s="2">
         <v>60</v>
@@ -9251,7 +9247,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B434" s="2">
         <v>48</v>
@@ -9263,7 +9259,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E434" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>8</v>
@@ -9271,7 +9267,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B435" s="2">
         <v>48</v>
@@ -9291,7 +9287,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B436" s="2">
         <v>48</v>
@@ -9303,7 +9299,7 @@
         <v>0.5</v>
       </c>
       <c r="E436" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>19</v>
@@ -9311,7 +9307,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B437" s="2">
         <v>48</v>
@@ -9331,7 +9327,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B438" s="2">
         <v>48</v>
@@ -9343,7 +9339,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E438" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F438" s="6" t="s">
         <v>19</v>
@@ -9351,7 +9347,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B439" s="2">
         <v>48</v>
@@ -9371,7 +9367,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B440" s="2">
         <v>48</v>
@@ -9383,7 +9379,7 @@
         <v>0.5</v>
       </c>
       <c r="E440" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F440" s="6" t="s">
         <v>19</v>
@@ -9391,7 +9387,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B441" s="2">
         <v>48</v>
@@ -9411,7 +9407,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B442" s="2">
         <v>48</v>
@@ -9423,7 +9419,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E442" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F442" s="6" t="s">
         <v>19</v>
@@ -9431,7 +9427,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B443" s="2">
         <v>48</v>
@@ -9451,7 +9447,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B444" s="2">
         <v>48</v>
@@ -9471,7 +9467,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B445" s="2">
         <v>48</v>
@@ -9483,7 +9479,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E445" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F445" s="6" t="s">
         <v>19</v>
@@ -9491,7 +9487,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B446" s="2">
         <v>48</v>
@@ -9511,7 +9507,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B447" s="2">
         <v>48</v>
@@ -9523,7 +9519,7 @@
         <v>0.5</v>
       </c>
       <c r="E447" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F447" s="6" t="s">
         <v>19</v>
@@ -9531,7 +9527,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B448" s="2">
         <v>48</v>
@@ -9551,7 +9547,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B449" s="2">
         <v>48</v>
@@ -9563,7 +9559,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E449" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F449" s="6" t="s">
         <v>19</v>
@@ -9571,7 +9567,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B450" s="2">
         <v>48</v>
@@ -9591,7 +9587,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B451" s="2">
         <v>48</v>
@@ -9611,7 +9607,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B452" s="2">
         <v>48</v>
@@ -9623,7 +9619,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E452" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>8</v>
@@ -9631,7 +9627,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B453" s="2">
         <v>48</v>
@@ -9651,7 +9647,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B454" s="2">
         <v>48</v>
@@ -9663,7 +9659,7 @@
         <v>0.5</v>
       </c>
       <c r="E454" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>8</v>
@@ -9671,7 +9667,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B455" s="2">
         <v>48</v>
@@ -9691,7 +9687,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B456" s="2">
         <v>48</v>
@@ -9703,7 +9699,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E456" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F456" s="6" t="s">
         <v>19</v>
@@ -9711,7 +9707,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B457" s="2">
         <v>48</v>
@@ -9731,7 +9727,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B458" s="2">
         <v>48</v>
@@ -9743,7 +9739,7 @@
         <v>0.5</v>
       </c>
       <c r="E458" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
@@ -9751,7 +9747,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B459" s="2">
         <v>48</v>
@@ -9771,7 +9767,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B460" s="2">
         <v>48</v>
@@ -9783,7 +9779,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E460" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>14</v>
@@ -9791,7 +9787,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B461" s="2">
         <v>48</v>
@@ -9811,7 +9807,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B462" s="2">
         <v>48</v>
@@ -9831,7 +9827,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B463" s="2">
         <v>48</v>
@@ -9843,7 +9839,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E463" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>8</v>
@@ -9851,7 +9847,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B464" s="2">
         <v>48</v>
@@ -9871,7 +9867,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B465" s="2">
         <v>48</v>
@@ -9883,7 +9879,7 @@
         <v>0.5</v>
       </c>
       <c r="E465" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>10</v>
@@ -9891,7 +9887,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B466" s="2">
         <v>48</v>
@@ -9911,7 +9907,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B467" s="2">
         <v>48</v>
@@ -9923,7 +9919,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E467" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>10</v>
@@ -9931,7 +9927,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B468" s="2">
         <v>48</v>
@@ -9951,7 +9947,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B469" s="2">
         <v>48</v>
@@ -9971,7 +9967,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B470" s="2">
         <v>48</v>
@@ -9983,7 +9979,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E470" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>10</v>
@@ -9991,7 +9987,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B471" s="2">
         <v>48</v>
@@ -10011,7 +10007,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B472" s="2">
         <v>48</v>
@@ -10023,7 +10019,7 @@
         <v>0.5</v>
       </c>
       <c r="E472" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>10</v>
@@ -10031,7 +10027,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B473" s="2">
         <v>48</v>
@@ -10051,7 +10047,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B474" s="2">
         <v>48</v>
@@ -10063,7 +10059,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E474" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>10</v>
@@ -10071,7 +10067,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B475" s="2">
         <v>48</v>
@@ -10091,7 +10087,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B476" s="2">
         <v>48</v>
@@ -10103,7 +10099,7 @@
         <v>0.5</v>
       </c>
       <c r="E476" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>10</v>
@@ -10111,7 +10107,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B477" s="2">
         <v>48</v>
@@ -10131,7 +10127,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B478" s="2">
         <v>48</v>
@@ -10143,7 +10139,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E478" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>10</v>
@@ -10151,7 +10147,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B479" s="2">
         <v>48</v>
@@ -10171,7 +10167,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B480" s="2">
         <v>48</v>
@@ -10191,7 +10187,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B481" s="2">
         <v>48</v>
@@ -10203,7 +10199,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E481" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
@@ -10211,7 +10207,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B482" s="2">
         <v>48</v>
@@ -10231,7 +10227,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B483" s="2">
         <v>48</v>
@@ -10243,7 +10239,7 @@
         <v>0.5</v>
       </c>
       <c r="E483" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
@@ -10251,7 +10247,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B484" s="2">
         <v>48</v>
@@ -10271,7 +10267,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B485" s="2">
         <v>48</v>
@@ -10283,7 +10279,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E485" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>10</v>
@@ -10291,7 +10287,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B486" s="2">
         <v>48</v>
@@ -10311,7 +10307,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B487" s="2">
         <v>48</v>
@@ -10331,7 +10327,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B488" s="2">
         <v>36</v>
@@ -10343,7 +10339,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E488" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F488" s="6" t="s">
         <v>19</v>
@@ -10351,7 +10347,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B489" s="2">
         <v>36</v>
@@ -10371,7 +10367,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B490" s="2">
         <v>36</v>
@@ -10383,7 +10379,7 @@
         <v>0.5</v>
       </c>
       <c r="E490" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F490" s="6" t="s">
         <v>19</v>
@@ -10391,7 +10387,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B491" s="2">
         <v>36</v>
@@ -10411,7 +10407,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B492" s="2">
         <v>36</v>
@@ -10423,7 +10419,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E492" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F492" s="6" t="s">
         <v>19</v>
@@ -10431,7 +10427,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B493" s="2">
         <v>36</v>
@@ -10451,7 +10447,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B494" s="2">
         <v>36</v>
@@ -10463,7 +10459,7 @@
         <v>0.5</v>
       </c>
       <c r="E494" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F494" s="6" t="s">
         <v>19</v>
@@ -10471,7 +10467,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B495" s="2">
         <v>36</v>
@@ -10491,7 +10487,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B496" s="2">
         <v>36</v>
@@ -10503,7 +10499,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E496" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F496" s="6" t="s">
         <v>19</v>
@@ -10511,7 +10507,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B497" s="2">
         <v>36</v>
@@ -10531,7 +10527,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B498" s="2">
         <v>36</v>
@@ -10551,7 +10547,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B499" s="2">
         <v>36</v>
@@ -10563,7 +10559,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E499" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F499" s="6" t="s">
         <v>19</v>
@@ -10571,7 +10567,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B500" s="2">
         <v>36</v>
@@ -10591,7 +10587,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B501" s="2">
         <v>36</v>
@@ -10603,7 +10599,7 @@
         <v>0.5</v>
       </c>
       <c r="E501" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F501" s="6" t="s">
         <v>19</v>
@@ -10611,7 +10607,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B502" s="2">
         <v>36</v>
@@ -10631,7 +10627,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B503" s="2">
         <v>36</v>
@@ -10643,7 +10639,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E503" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F503" s="6" t="s">
         <v>19</v>
@@ -10651,7 +10647,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B504" s="2">
         <v>36</v>
@@ -10671,7 +10667,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B505" s="2">
         <v>36</v>
@@ -10691,7 +10687,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B506" s="2">
         <v>60</v>
@@ -10703,15 +10699,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E506" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B507" s="2">
         <v>60</v>
@@ -10726,12 +10722,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B508" s="2">
         <v>60</v>
@@ -10743,15 +10739,15 @@
         <v>0.5</v>
       </c>
       <c r="E508" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B509" s="2">
         <v>60</v>
@@ -10766,12 +10762,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B510" s="6">
         <v>60</v>
@@ -10783,15 +10779,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E510" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B511" s="2">
         <v>60</v>
@@ -10806,12 +10802,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B512" s="2">
         <v>60</v>
@@ -10823,15 +10819,15 @@
         <v>0.5</v>
       </c>
       <c r="E512" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F512" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B513" s="2">
         <v>60</v>
@@ -10846,12 +10842,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F513" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B514" s="2">
         <v>60</v>
@@ -10863,15 +10859,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E514" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B515" s="2">
         <v>60</v>
@@ -10886,12 +10882,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B516" s="2">
         <v>60</v>
@@ -10906,12 +10902,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B517" s="2">
         <v>60</v>
@@ -10923,15 +10919,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E517" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B518" s="2">
         <v>60</v>
@@ -10946,12 +10942,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F518" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B519" s="2">
         <v>60</v>
@@ -10963,15 +10959,15 @@
         <v>0.5</v>
       </c>
       <c r="E519" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F519" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B520" s="2">
         <v>60</v>
@@ -10986,12 +10982,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B521" s="2">
         <v>60</v>
@@ -11003,15 +10999,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E521" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B522" s="2">
         <v>60</v>
@@ -11026,12 +11022,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B523" s="2">
         <v>60</v>
@@ -11046,12 +11042,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B524" s="2">
         <v>48</v>
@@ -11063,15 +11059,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E524" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B525" s="2">
         <v>48</v>
@@ -11086,12 +11082,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B526" s="2">
         <v>48</v>
@@ -11103,15 +11099,15 @@
         <v>0.5</v>
       </c>
       <c r="E526" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B527" s="2">
         <v>48</v>
@@ -11126,12 +11122,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B528" s="6">
         <v>48</v>
@@ -11143,15 +11139,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E528" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B529" s="2">
         <v>48</v>
@@ -11166,12 +11162,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B530" s="2">
         <v>48</v>
@@ -11183,15 +11179,15 @@
         <v>0.5</v>
       </c>
       <c r="E530" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B531" s="2">
         <v>48</v>
@@ -11206,12 +11202,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B532" s="2">
         <v>48</v>
@@ -11223,15 +11219,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E532" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B533" s="2">
         <v>48</v>
@@ -11246,12 +11242,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B534" s="2">
         <v>48</v>
@@ -11266,12 +11262,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B535" s="2">
         <v>48</v>
@@ -11283,15 +11279,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E535" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F535" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B536" s="2">
         <v>48</v>
@@ -11306,12 +11302,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B537" s="2">
         <v>48</v>
@@ -11323,15 +11319,15 @@
         <v>0.5</v>
       </c>
       <c r="E537" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F537" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B538" s="2">
         <v>48</v>
@@ -11346,12 +11342,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B539" s="2">
         <v>48</v>
@@ -11363,15 +11359,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E539" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B540" s="2">
         <v>48</v>
@@ -11386,12 +11382,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B541" s="2">
         <v>48</v>
@@ -11406,12 +11402,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F541" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B542" s="2">
         <v>36</v>
@@ -11423,15 +11419,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E542" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B543" s="2">
         <v>36</v>
@@ -11446,12 +11442,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B544" s="2">
         <v>36</v>
@@ -11463,15 +11459,15 @@
         <v>0.5</v>
       </c>
       <c r="E544" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B545" s="2">
         <v>36</v>
@@ -11486,12 +11482,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F545" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B546" s="6">
         <v>36</v>
@@ -11503,15 +11499,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E546" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F546" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B547" s="2">
         <v>36</v>
@@ -11526,12 +11522,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F547" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B548" s="2">
         <v>36</v>
@@ -11543,15 +11539,15 @@
         <v>0.5</v>
       </c>
       <c r="E548" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B549" s="2">
         <v>36</v>
@@ -11566,12 +11562,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F549" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B550" s="2">
         <v>36</v>
@@ -11583,15 +11579,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E550" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B551" s="2">
         <v>36</v>
@@ -11606,12 +11602,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B552" s="2">
         <v>36</v>
@@ -11626,12 +11622,12 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B553" s="2">
         <v>36</v>
@@ -11643,15 +11639,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E553" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B554" s="2">
         <v>36</v>
@@ -11666,12 +11662,12 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B555" s="2">
         <v>36</v>
@@ -11683,15 +11679,15 @@
         <v>0.5</v>
       </c>
       <c r="E555" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B556" s="2">
         <v>36</v>
@@ -11706,12 +11702,12 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="F556" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B557" s="2">
         <v>36</v>
@@ -11723,15 +11719,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E557" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B558" s="2">
         <v>36</v>
@@ -11746,12 +11742,12 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="F558" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B559" s="2">
         <v>36</v>
@@ -11766,18 +11762,18 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B560" s="1">
         <v>52</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D560" s="3">
         <v>0.77083333333333337</v>
@@ -11786,18 +11782,18 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B561" s="1">
         <v>52</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D561" s="3">
         <v>0.77083333333333337</v>
@@ -11811,7 +11807,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B562" s="1">
         <v>52</v>
@@ -11831,7 +11827,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B563" s="1">
         <v>52</v>
@@ -11851,7 +11847,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B564" s="1">
         <v>52</v>
@@ -11863,15 +11859,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E564" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B565" s="1">
         <v>52</v>
@@ -11883,7 +11879,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E565" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F565" s="1" t="s">
         <v>11</v>
@@ -11891,7 +11887,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B566" s="1">
         <v>52</v>
@@ -11903,15 +11899,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E566" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B567" s="1">
         <v>52</v>
@@ -11926,12 +11922,12 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B568" s="1">
         <v>52</v>
@@ -11951,13 +11947,13 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B569" s="1">
         <v>52</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D569" s="3">
         <v>0.77083333333333337</v>
@@ -11971,7 +11967,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B570" s="1">
         <v>52</v>
@@ -11991,7 +11987,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B571" s="1">
         <v>52</v>
@@ -12011,7 +12007,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B572" s="1">
         <v>52</v>
@@ -12031,7 +12027,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B573" s="1">
         <v>52</v>
@@ -12043,7 +12039,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E573" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>14</v>
@@ -12051,7 +12047,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B574" s="1">
         <v>52</v>
@@ -12063,7 +12059,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E574" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F574" s="1" t="s">
         <v>10</v>
@@ -12071,7 +12067,7 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B575" s="1">
         <v>52</v>
@@ -12091,7 +12087,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B576" s="1">
         <v>52</v>
@@ -12111,13 +12107,13 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B577" s="1">
         <v>52</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D577" s="3">
         <v>0.77083333333333337</v>
@@ -12131,13 +12127,13 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B578" s="1">
         <v>56</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D578" s="3">
         <v>0.77083333333333337</v>
@@ -12151,13 +12147,13 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B579" s="1">
         <v>56</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D579" s="3">
         <v>0.77083333333333337</v>
@@ -12171,7 +12167,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B580" s="1">
         <v>56</v>
@@ -12191,7 +12187,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B581" s="1">
         <v>56</v>
@@ -12211,7 +12207,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B582" s="1">
         <v>56</v>
@@ -12223,7 +12219,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E582" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F582" s="2" t="s">
         <v>8</v>
@@ -12231,7 +12227,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B583" s="1">
         <v>56</v>
@@ -12243,7 +12239,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E583" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F583" s="2" t="s">
         <v>8</v>
@@ -12251,7 +12247,7 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B584" s="1">
         <v>56</v>
@@ -12263,7 +12259,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E584" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F584" s="2" t="s">
         <v>8</v>
@@ -12271,7 +12267,7 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B585" s="1">
         <v>56</v>
@@ -12291,7 +12287,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B586" s="1">
         <v>56</v>
@@ -12311,13 +12307,13 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B587" s="1">
         <v>56</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D587" s="3">
         <v>0.77083333333333337</v>
@@ -12331,7 +12327,7 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B588" s="1">
         <v>56</v>
@@ -12351,7 +12347,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B589" s="1">
         <v>56</v>
@@ -12371,7 +12367,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B590" s="1">
         <v>56</v>
@@ -12383,7 +12379,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E590" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F590" s="2" t="s">
         <v>10</v>
@@ -12391,7 +12387,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B591" s="1">
         <v>56</v>
@@ -12403,7 +12399,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E591" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F591" s="2" t="s">
         <v>14</v>
@@ -12411,7 +12407,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B592" s="1">
         <v>56</v>
@@ -12423,7 +12419,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E592" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F592" s="2" t="s">
         <v>8</v>
@@ -12431,7 +12427,7 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B593" s="1">
         <v>56</v>
@@ -12451,7 +12447,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B594" s="1">
         <v>56</v>
@@ -12471,13 +12467,13 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B595" s="1">
         <v>56</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D595" s="3">
         <v>0.77083333333333337</v>
@@ -12491,7 +12487,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B596" s="2">
         <v>78</v>
@@ -12503,7 +12499,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E596" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F596" s="2" t="s">
         <v>8</v>
@@ -12511,7 +12507,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B597" s="2">
         <v>78</v>
@@ -12531,7 +12527,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B598" s="2">
         <v>78</v>
@@ -12543,7 +12539,7 @@
         <v>0.5</v>
       </c>
       <c r="E598" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F598" s="2" t="s">
         <v>8</v>
@@ -12551,7 +12547,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B599" s="2">
         <v>78</v>
@@ -12571,13 +12567,13 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B600" s="2">
         <v>78</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D600" s="3">
         <v>0.77083333333333337</v>
@@ -12586,12 +12582,12 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B601" s="6">
         <v>78</v>
@@ -12603,7 +12599,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E601" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F601" s="2" t="s">
         <v>8</v>
@@ -12611,7 +12607,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B602" s="2">
         <v>78</v>
@@ -12631,7 +12627,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B603" s="2">
         <v>78</v>
@@ -12643,7 +12639,7 @@
         <v>0.5</v>
       </c>
       <c r="E603" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F603" s="2" t="s">
         <v>8</v>
@@ -12651,7 +12647,7 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B604" s="2">
         <v>78</v>
@@ -12671,7 +12667,7 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B605" s="2">
         <v>78</v>
@@ -12683,7 +12679,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E605" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>11</v>
@@ -12691,7 +12687,7 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B606" s="2">
         <v>78</v>
@@ -12711,7 +12707,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B607" s="2">
         <v>78</v>
@@ -12731,13 +12727,13 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B608" s="2">
         <v>78</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D608" s="3">
         <v>0.77083333333333337</v>
@@ -12746,12 +12742,12 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B609" s="2">
         <v>78</v>
@@ -12763,7 +12759,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E609" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="F609" s="2" t="s">
         <v>8</v>
@@ -12771,7 +12767,7 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B610" s="2">
         <v>78</v>
@@ -12791,7 +12787,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B611" s="2">
         <v>78</v>
@@ -12803,7 +12799,7 @@
         <v>0.5</v>
       </c>
       <c r="E611" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F611" s="2" t="s">
         <v>11</v>
@@ -12811,7 +12807,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B612" s="2">
         <v>78</v>
@@ -12831,7 +12827,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B613" s="2">
         <v>78</v>
@@ -12843,7 +12839,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E613" s="3">
-        <v>0.74305555555555547</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="F613" s="2" t="s">
         <v>11</v>
@@ -12851,13 +12847,13 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B614" s="1">
         <v>77</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D614" s="3">
         <v>0.77083333333333337</v>
@@ -12871,13 +12867,13 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B615" s="1">
         <v>77</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D615" s="3">
         <v>0.77083333333333337</v>
@@ -12891,7 +12887,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B616" s="1">
         <v>77</v>
@@ -12911,7 +12907,7 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B617" s="1">
         <v>77</v>
@@ -12931,7 +12927,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B618" s="1">
         <v>77</v>
@@ -12943,7 +12939,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E618" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F618" s="1" t="s">
         <v>14</v>
@@ -12951,7 +12947,7 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B619" s="1">
         <v>77</v>
@@ -12963,7 +12959,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E619" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F619" s="1" t="s">
         <v>14</v>
@@ -12971,7 +12967,7 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B620" s="1">
         <v>77</v>
@@ -12983,7 +12979,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E620" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F620" s="2" t="s">
         <v>8</v>
@@ -12991,7 +12987,7 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B621" s="1">
         <v>77</v>
@@ -13011,7 +13007,7 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B622" s="1">
         <v>77</v>
@@ -13031,13 +13027,13 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B623" s="1">
         <v>77</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D623" s="3">
         <v>0.77083333333333337</v>
@@ -13051,7 +13047,7 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B624" s="1">
         <v>77</v>
@@ -13071,7 +13067,7 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B625" s="1">
         <v>77</v>
@@ -13091,7 +13087,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B626" s="1">
         <v>77</v>
@@ -13103,7 +13099,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E626" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F626" s="1" t="s">
         <v>16</v>
@@ -13111,7 +13107,7 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B627" s="1">
         <v>77</v>
@@ -13123,7 +13119,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E627" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F627" s="1" t="s">
         <v>14</v>
@@ -13131,7 +13127,7 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B628" s="1">
         <v>77</v>
@@ -13143,7 +13139,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E628" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F628" s="1" t="s">
         <v>8</v>
@@ -13151,7 +13147,7 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B629" s="1">
         <v>77</v>
@@ -13171,7 +13167,7 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B630" s="1">
         <v>77</v>
@@ -13191,13 +13187,13 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B631" s="1">
         <v>77</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D631" s="3">
         <v>0.77083333333333337</v>
@@ -13206,18 +13202,18 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B632" s="1">
         <v>54</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D632" s="3">
         <v>0.77083333333333337</v>
@@ -13226,18 +13222,18 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B633" s="1">
         <v>54</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D633" s="3">
         <v>0.77083333333333337</v>
@@ -13251,7 +13247,7 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B634" s="1">
         <v>54</v>
@@ -13263,15 +13259,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E634" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B635" s="1">
         <v>54</v>
@@ -13283,15 +13279,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E635" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B636" s="1">
         <v>54</v>
@@ -13306,12 +13302,12 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B637" s="1">
         <v>54</v>
@@ -13326,18 +13322,18 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B638" s="1">
         <v>54</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D638" s="3">
         <v>0.77083333333333337</v>
@@ -13351,7 +13347,7 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B639" s="1">
         <v>54</v>
@@ -13366,12 +13362,12 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B640" s="1">
         <v>54</v>
@@ -13386,12 +13382,12 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B641" s="1">
         <v>54</v>
@@ -13403,15 +13399,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E641" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B642" s="1">
         <v>54</v>
@@ -13423,15 +13419,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E642" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B643" s="1">
         <v>54</v>
@@ -13443,15 +13439,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E643" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B644" s="1">
         <v>54</v>
@@ -13466,12 +13462,12 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B645" s="1">
         <v>54</v>
@@ -13486,18 +13482,18 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B646" s="1">
         <v>54</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D646" s="3">
         <v>0.77083333333333337</v>
@@ -13511,7 +13507,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B647" s="1">
         <v>54</v>
@@ -13526,12 +13522,12 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B648" s="1">
         <v>54</v>
@@ -13546,12 +13542,12 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B649" s="1">
         <v>54</v>
@@ -13563,21 +13559,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E649" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B650" s="1">
         <v>57</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D650" s="3">
         <v>0.77083333333333337</v>
@@ -13591,13 +13587,13 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B651" s="1">
         <v>57</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D651" s="3">
         <v>0.77083333333333337</v>
@@ -13611,7 +13607,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B652" s="1">
         <v>57</v>
@@ -13626,12 +13622,12 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B653" s="1">
         <v>57</v>
@@ -13646,12 +13642,12 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B654" s="1">
         <v>57</v>
@@ -13663,15 +13659,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E654" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B655" s="1">
         <v>57</v>
@@ -13683,15 +13679,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E655" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B656" s="1">
         <v>57</v>
@@ -13703,15 +13699,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E656" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B657" s="1">
         <v>57</v>
@@ -13726,12 +13722,12 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B658" s="1">
         <v>57</v>
@@ -13751,13 +13747,13 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B659" s="1">
         <v>57</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D659" s="3">
         <v>0.77083333333333337</v>
@@ -13771,7 +13767,7 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B660" s="1">
         <v>57</v>
@@ -13786,12 +13782,12 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B661" s="1">
         <v>57</v>
@@ -13806,12 +13802,12 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B662" s="1">
         <v>57</v>
@@ -13823,15 +13819,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E662" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B663" s="1">
         <v>57</v>
@@ -13843,15 +13839,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E663" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B664" s="1">
         <v>57</v>
@@ -13863,15 +13859,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E664" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F664" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B665" s="1">
         <v>57</v>
@@ -13886,12 +13882,12 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="F665" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B666" s="1">
         <v>57</v>
@@ -13911,13 +13907,13 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B667" s="1">
         <v>57</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D667" s="3">
         <v>0.77083333333333337</v>
@@ -13931,13 +13927,13 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B668" s="1">
         <v>78</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D668" s="3">
         <v>0.77083333333333337</v>
@@ -13946,18 +13942,18 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B669" s="1">
         <v>78</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D669" s="3">
         <v>0.77083333333333337</v>
@@ -13966,12 +13962,12 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B670" s="1">
         <v>78</v>
@@ -13991,7 +13987,7 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B671" s="1">
         <v>78</v>
@@ -14011,7 +14007,7 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B672" s="1">
         <v>78</v>
@@ -14023,7 +14019,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E672" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F672" s="1" t="s">
         <v>10</v>
@@ -14031,7 +14027,7 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B673" s="1">
         <v>78</v>
@@ -14043,7 +14039,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E673" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F673" s="1" t="s">
         <v>8</v>
@@ -14051,7 +14047,7 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B674" s="1">
         <v>78</v>
@@ -14063,7 +14059,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E674" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F674" s="1" t="s">
         <v>14</v>
@@ -14071,7 +14067,7 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B675" s="1">
         <v>78</v>
@@ -14091,7 +14087,7 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B676" s="1">
         <v>78</v>
@@ -14106,18 +14102,18 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F676" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B677" s="1">
         <v>78</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D677" s="3">
         <v>0.77083333333333337</v>
@@ -14131,7 +14127,7 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B678" s="1">
         <v>78</v>
@@ -14151,7 +14147,7 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B679" s="1">
         <v>78</v>
@@ -14171,7 +14167,7 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B680" s="1">
         <v>78</v>
@@ -14183,7 +14179,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E680" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F680" s="1" t="s">
         <v>11</v>
@@ -14191,7 +14187,7 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B681" s="1">
         <v>78</v>
@@ -14203,7 +14199,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E681" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F681" s="1" t="s">
         <v>11</v>
@@ -14211,7 +14207,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B682" s="1">
         <v>78</v>
@@ -14223,7 +14219,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E682" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F682" s="1" t="s">
         <v>14</v>
@@ -14231,7 +14227,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B683" s="1">
         <v>78</v>
@@ -14251,7 +14247,7 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B684" s="1">
         <v>78</v>
@@ -14271,13 +14267,13 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B685" s="1">
         <v>78</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D685" s="3">
         <v>0.77083333333333337</v>
@@ -14286,7 +14282,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -14297,7 +14293,7 @@
         <v>78</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D686" s="3">
         <v>0.77083333333333337</v>
@@ -14317,7 +14313,7 @@
         <v>78</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D687" s="3">
         <v>0.77083333333333337</v>
@@ -14326,7 +14322,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
@@ -14346,7 +14342,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
@@ -14366,7 +14362,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
@@ -14383,10 +14379,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E690" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
@@ -14403,7 +14399,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E691" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F691" s="1" t="s">
         <v>8</v>
@@ -14423,7 +14419,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E692" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F692" s="1" t="s">
         <v>14</v>
@@ -14446,7 +14442,7 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
@@ -14477,7 +14473,7 @@
         <v>78</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D695" s="3">
         <v>0.77083333333333337</v>
@@ -14486,7 +14482,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F695" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.25">
@@ -14506,7 +14502,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F696" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
@@ -14526,7 +14522,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
@@ -14543,10 +14539,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E698" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
@@ -14563,7 +14559,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E699" s="3">
-        <v>0.57638888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="F699" s="1" t="s">
         <v>8</v>
@@ -14583,7 +14579,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E700" s="3">
-        <v>0.63888888888888895</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F700" s="1" t="s">
         <v>10</v>
@@ -14637,7 +14633,7 @@
         <v>78</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D703" s="3">
         <v>0.77083333333333337</v>
